--- a/questions/2018/5b_ak.xlsx
+++ b/questions/2018/5b_ak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koji\OneDrive\Document\6th Form\pi\NCC_2018\questions\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{4D5537D2-7130-45DC-A34B-37F1B40F9EFC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{E0CC9D14-7BD3-4649-9789-338906F4A57C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{20CB6E11-3250-480E-86A2-849C09B9C728}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8080" xr2:uid="{B3B5913D-D0F6-455E-A523-D7347F9AAFE5}"/>
   </bookViews>
@@ -188,7 +188,7 @@
     <t>Z</t>
   </si>
   <si>
-    <t>Reichstag</t>
+    <t>Reichstadt</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
